--- a/maven/src/main/java/testData/TestData.xlsx
+++ b/maven/src/main/java/testData/TestData.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9FD3E4C3-69B2-4822-8ED4-19B5B74DDEEB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anh Duong\Personal\Testing\Selenium\automation\maven\src\main\java\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{3D3610CB-0ED0-486B-A5D8-758A64208D4C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18708" windowHeight="5172" xr2:uid="{DB1790F2-6D4D-47DD-8CA7-9D65610E91F0}"/>
+    <workbookView windowHeight="5172" windowWidth="18708" xWindow="4680" xr2:uid="{DB1790F2-6D4D-47DD-8CA7-9D65610E91F0}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SignInValidData" r:id="rId1" sheetId="1"/>
+    <sheet name="SignInNotValidData" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,30 +26,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Test Case Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>PageObjectExample.java</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t>user01@gmail.com</t>
+  </si>
+  <si>
+    <t>Passsword01</t>
+  </si>
+  <si>
+    <t>Authentication failed</t>
+  </si>
+  <si>
+    <t>user01gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid email address</t>
+  </si>
+  <si>
+    <t>Password is required</t>
+  </si>
+  <si>
+    <t>An email address is required</t>
+  </si>
+  <si>
+    <t>user01abcabc@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid email, invalid password</t>
+  </si>
+  <si>
+    <t>Invalid email fortmat</t>
+  </si>
+  <si>
+    <t>Email not existing</t>
+  </si>
+  <si>
+    <t>Valid email, blank password</t>
+  </si>
+  <si>
+    <t>Blank email</t>
+  </si>
+  <si>
+    <t>CaseID#</t>
+  </si>
+  <si>
+    <t>CaseID #</t>
+  </si>
+  <si>
+    <t>Expected Outome</t>
+  </si>
+  <si>
+    <t>user001@gmail.com</t>
+  </si>
+  <si>
+    <t>password01</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,19 +137,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -109,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -147,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -199,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -310,21 +367,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -341,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -393,53 +450,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7506221-5627-459C-917F-D92749BF250E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7506221-5627-459C-917F-D92749BF250E}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4725DAD1-BA70-4872-9B8C-2DF2C5B20A21}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{4725DAD1-BA70-4872-9B8C-2DF2C5B20A21}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF09B6E-4897-4792-9F32-39F8F6ECD853}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{5D8D6ECF-D707-41EA-88CB-600ADDCBA6D7}"/>
+    <hyperlink display="user01@gmail.com" r:id="rId2" ref="B4" xr:uid="{246B5540-245B-4278-AA4D-98F79792F252}"/>
+    <hyperlink r:id="rId3" ref="B5" xr:uid="{55F0C070-77F4-41E7-AF49-2D34BC4433CF}"/>
+    <hyperlink r:id="rId4" ref="B3" xr:uid="{D385E4AE-D308-4BCA-BF98-AF0E8B9F9F77}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>